--- a/docs/effects_dataset.xlsx
+++ b/docs/effects_dataset.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Kerwin Sneijders\Documents\Python\AoE2ScenarioParser\docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{00AC658A-3D3E-417A-BFE2-E9ED7B923A23}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6AA817B4-859D-40AF-A49B-35BE11CBFBBE}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="46605" yWindow="4830" windowWidth="21600" windowHeight="11385" xr2:uid="{90371F8B-6720-4A08-B900-3F8240B127A6}"/>
+    <workbookView minimized="1" xWindow="4065" yWindow="1260" windowWidth="21600" windowHeight="11385" xr2:uid="{90371F8B-6720-4A08-B900-3F8240B127A6}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="110">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="111" uniqueCount="111">
   <si>
     <t>&lt;None&gt;</t>
   </si>
@@ -195,172 +195,175 @@
     <t>Use Advanced Buttons</t>
   </si>
   <si>
-    <t>change_diplomacy = 1</t>
-  </si>
-  <si>
-    <t>research_technology = 2</t>
-  </si>
-  <si>
-    <t>send_chat = 3</t>
-  </si>
-  <si>
-    <t>play_sound = 4</t>
-  </si>
-  <si>
-    <t>tribute = 5</t>
-  </si>
-  <si>
-    <t>unlock_gate = 6</t>
-  </si>
-  <si>
-    <t>lock_gate = 7</t>
-  </si>
-  <si>
-    <t>activate_trigger = 8</t>
-  </si>
-  <si>
-    <t>deactivate_trigger = 9</t>
-  </si>
-  <si>
-    <t>create_object = 11</t>
-  </si>
-  <si>
-    <t>task_object = 12</t>
-  </si>
-  <si>
-    <t>declare_victory = 13</t>
-  </si>
-  <si>
-    <t>kill_object = 14</t>
-  </si>
-  <si>
-    <t>remove_object = 15</t>
-  </si>
-  <si>
-    <t>change_view = 16</t>
-  </si>
-  <si>
-    <t>unload = 17</t>
-  </si>
-  <si>
-    <t>change_ownership = 18</t>
-  </si>
-  <si>
-    <t>patrol = 19</t>
-  </si>
-  <si>
-    <t>display_instructions = 20</t>
-  </si>
-  <si>
-    <t>clear_instructions = 21</t>
-  </si>
-  <si>
-    <t>freeze_object = 22</t>
-  </si>
-  <si>
-    <t>use_advanced_buttons = 23</t>
-  </si>
-  <si>
-    <t>damage_object = 24</t>
-  </si>
-  <si>
-    <t>place_foundation = 25</t>
-  </si>
-  <si>
-    <t>change_object_name = 26</t>
-  </si>
-  <si>
-    <t>change_object_hp = 27</t>
-  </si>
-  <si>
-    <t>change_object_attack = 28</t>
-  </si>
-  <si>
-    <t>stop_object = 29</t>
-  </si>
-  <si>
-    <t>attack_move = 30</t>
-  </si>
-  <si>
-    <t>change_object_armor = 31</t>
-  </si>
-  <si>
-    <t>change_object_range = 32</t>
-  </si>
-  <si>
-    <t>change_object_speed = 33</t>
-  </si>
-  <si>
-    <t>heal_object = 34</t>
-  </si>
-  <si>
-    <t>teleport_object = 35</t>
-  </si>
-  <si>
-    <t>change_object_stance = 36</t>
-  </si>
-  <si>
-    <t>display_timer = 37</t>
-  </si>
-  <si>
-    <t>enable/disable_object = 38</t>
-  </si>
-  <si>
-    <t>enable/disable_technology = 39</t>
-  </si>
-  <si>
-    <t>change_object_cost = 40</t>
-  </si>
-  <si>
-    <t>set_player_visibility = 41</t>
-  </si>
-  <si>
-    <t>change_object_icon = 42</t>
-  </si>
-  <si>
-    <t>replace_object = 43</t>
-  </si>
-  <si>
-    <t>change_object_description = 44</t>
-  </si>
-  <si>
-    <t>change_player_name = 45</t>
-  </si>
-  <si>
-    <t>change_train_location = 46</t>
-  </si>
-  <si>
-    <t>change_research_location = 47</t>
-  </si>
-  <si>
-    <t>change_civilization_name = 48</t>
-  </si>
-  <si>
-    <t>acknowledge_ai_signal = 50</t>
-  </si>
-  <si>
-    <t>modify_attribute = 51</t>
-  </si>
-  <si>
-    <t>modify_resource = 52</t>
-  </si>
-  <si>
-    <t>modify_resource_by_variable = 53</t>
-  </si>
-  <si>
-    <t>change_variable = 56</t>
-  </si>
-  <si>
-    <t>clear_timer = 57</t>
-  </si>
-  <si>
-    <t>create_garrisoned_object = 49</t>
-  </si>
-  <si>
     <t>Create Garrisoned Object</t>
   </si>
   <si>
-    <t>none = 0</t>
+    <t>none</t>
+  </si>
+  <si>
+    <t>change_diplomacy</t>
+  </si>
+  <si>
+    <t>research_technology</t>
+  </si>
+  <si>
+    <t>send_chat</t>
+  </si>
+  <si>
+    <t>play_sound</t>
+  </si>
+  <si>
+    <t>tribute</t>
+  </si>
+  <si>
+    <t>unlock_gate</t>
+  </si>
+  <si>
+    <t>lock_gate</t>
+  </si>
+  <si>
+    <t>activate_trigger</t>
+  </si>
+  <si>
+    <t>deactivate_trigger</t>
+  </si>
+  <si>
+    <t>create_object</t>
+  </si>
+  <si>
+    <t>task_object</t>
+  </si>
+  <si>
+    <t>declare_victory</t>
+  </si>
+  <si>
+    <t>kill_object</t>
+  </si>
+  <si>
+    <t>remove_object</t>
+  </si>
+  <si>
+    <t>change_view</t>
+  </si>
+  <si>
+    <t>unload</t>
+  </si>
+  <si>
+    <t>change_ownership</t>
+  </si>
+  <si>
+    <t>patrol</t>
+  </si>
+  <si>
+    <t>display_instructions</t>
+  </si>
+  <si>
+    <t>clear_instructions</t>
+  </si>
+  <si>
+    <t>freeze_object</t>
+  </si>
+  <si>
+    <t>use_advanced_buttons</t>
+  </si>
+  <si>
+    <t>damage_object</t>
+  </si>
+  <si>
+    <t>place_foundation</t>
+  </si>
+  <si>
+    <t>change_object_name</t>
+  </si>
+  <si>
+    <t>change_object_hp</t>
+  </si>
+  <si>
+    <t>change_object_attack</t>
+  </si>
+  <si>
+    <t>stop_object</t>
+  </si>
+  <si>
+    <t>attack_move</t>
+  </si>
+  <si>
+    <t>change_object_armor</t>
+  </si>
+  <si>
+    <t>change_object_range</t>
+  </si>
+  <si>
+    <t>change_object_speed</t>
+  </si>
+  <si>
+    <t>heal_object</t>
+  </si>
+  <si>
+    <t>teleport_object</t>
+  </si>
+  <si>
+    <t>change_object_stance</t>
+  </si>
+  <si>
+    <t>display_timer</t>
+  </si>
+  <si>
+    <t>enable/disable_object</t>
+  </si>
+  <si>
+    <t>enable/disable_technology</t>
+  </si>
+  <si>
+    <t>change_object_cost</t>
+  </si>
+  <si>
+    <t>set_player_visibility</t>
+  </si>
+  <si>
+    <t>change_object_icon</t>
+  </si>
+  <si>
+    <t>replace_object</t>
+  </si>
+  <si>
+    <t>change_object_description</t>
+  </si>
+  <si>
+    <t>change_player_name</t>
+  </si>
+  <si>
+    <t>change_train_location</t>
+  </si>
+  <si>
+    <t>change_research_location</t>
+  </si>
+  <si>
+    <t>change_civilization_name</t>
+  </si>
+  <si>
+    <t>create_garrisoned_object</t>
+  </si>
+  <si>
+    <t>acknowledge_ai_signal</t>
+  </si>
+  <si>
+    <t>modify_attribute</t>
+  </si>
+  <si>
+    <t>modify_resource</t>
+  </si>
+  <si>
+    <t>modify_resource_by_variable</t>
+  </si>
+  <si>
+    <t>change_variable</t>
+  </si>
+  <si>
+    <t>clear_timer</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
   </si>
 </sst>
 </file>
@@ -714,10 +717,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{364BA0EA-EB89-4D86-B144-4527D89AE4FA}">
-  <dimension ref="A1:C58"/>
+  <dimension ref="A1:H58"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B17" sqref="B17"/>
+    <sheetView tabSelected="1" topLeftCell="A25" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="B14" sqref="B14:C14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -735,7 +738,7 @@
         <v>0</v>
       </c>
       <c r="C1" t="s">
-        <v>109</v>
+        <v>55</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
@@ -746,7 +749,7 @@
         <v>5</v>
       </c>
       <c r="C2" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
@@ -757,7 +760,7 @@
         <v>44</v>
       </c>
       <c r="C3" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
@@ -768,7 +771,7 @@
         <v>45</v>
       </c>
       <c r="C4" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
@@ -779,7 +782,7 @@
         <v>41</v>
       </c>
       <c r="C5" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
@@ -790,7 +793,7 @@
         <v>50</v>
       </c>
       <c r="C6" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
@@ -801,7 +804,7 @@
         <v>52</v>
       </c>
       <c r="C7" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
@@ -812,7 +815,7 @@
         <v>35</v>
       </c>
       <c r="C8" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
@@ -823,7 +826,7 @@
         <v>2</v>
       </c>
       <c r="C9" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
@@ -834,7 +837,7 @@
         <v>26</v>
       </c>
       <c r="C10" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
@@ -850,7 +853,7 @@
         <v>24</v>
       </c>
       <c r="C12" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.25">
@@ -861,7 +864,7 @@
         <v>48</v>
       </c>
       <c r="C13" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.25">
@@ -872,7 +875,7 @@
         <v>27</v>
       </c>
       <c r="C14" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.25">
@@ -883,7 +886,7 @@
         <v>34</v>
       </c>
       <c r="C15" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.25">
@@ -894,7 +897,7 @@
         <v>42</v>
       </c>
       <c r="C16" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
@@ -905,7 +908,7 @@
         <v>21</v>
       </c>
       <c r="C17" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.25">
@@ -916,7 +919,7 @@
         <v>51</v>
       </c>
       <c r="C18" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.25">
@@ -927,7 +930,7 @@
         <v>16</v>
       </c>
       <c r="C19" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.25">
@@ -938,7 +941,7 @@
         <v>39</v>
       </c>
       <c r="C20" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.25">
@@ -949,7 +952,7 @@
         <v>28</v>
       </c>
       <c r="C21" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.25">
@@ -960,7 +963,7 @@
         <v>22</v>
       </c>
       <c r="C22" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.25">
@@ -971,7 +974,7 @@
         <v>32</v>
       </c>
       <c r="C23" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.25">
@@ -982,7 +985,7 @@
         <v>53</v>
       </c>
       <c r="C24" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.25">
@@ -993,7 +996,7 @@
         <v>25</v>
       </c>
       <c r="C25" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.25">
@@ -1004,7 +1007,7 @@
         <v>40</v>
       </c>
       <c r="C26" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.25">
@@ -1015,7 +1018,7 @@
         <v>12</v>
       </c>
       <c r="C27" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.25">
@@ -1026,7 +1029,7 @@
         <v>10</v>
       </c>
       <c r="C28" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.25">
@@ -1037,7 +1040,7 @@
         <v>7</v>
       </c>
       <c r="C29" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.25">
@@ -1048,7 +1051,7 @@
         <v>47</v>
       </c>
       <c r="C30" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.25">
@@ -1059,7 +1062,7 @@
         <v>3</v>
       </c>
       <c r="C31" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.25">
@@ -1070,7 +1073,7 @@
         <v>6</v>
       </c>
       <c r="C32" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.25">
@@ -1081,7 +1084,7 @@
         <v>13</v>
       </c>
       <c r="C33" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.25">
@@ -1092,7 +1095,7 @@
         <v>14</v>
       </c>
       <c r="C34" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.25">
@@ -1103,7 +1106,7 @@
         <v>33</v>
       </c>
       <c r="C35" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.25">
@@ -1114,7 +1117,7 @@
         <v>49</v>
       </c>
       <c r="C36" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.25">
@@ -1125,7 +1128,7 @@
         <v>15</v>
       </c>
       <c r="C37" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.25">
@@ -1136,7 +1139,7 @@
         <v>29</v>
       </c>
       <c r="C38" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.25">
@@ -1147,7 +1150,7 @@
         <v>30</v>
       </c>
       <c r="C39" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.25">
@@ -1158,7 +1161,7 @@
         <v>31</v>
       </c>
       <c r="C40" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.25">
@@ -1169,7 +1172,7 @@
         <v>8</v>
       </c>
       <c r="C41" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.25">
@@ -1180,7 +1183,7 @@
         <v>46</v>
       </c>
       <c r="C42" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.25">
@@ -1191,7 +1194,7 @@
         <v>11</v>
       </c>
       <c r="C43" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.25">
@@ -1202,7 +1205,7 @@
         <v>43</v>
       </c>
       <c r="C44" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.25">
@@ -1213,7 +1216,7 @@
         <v>9</v>
       </c>
       <c r="C45" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.25">
@@ -1224,7 +1227,7 @@
         <v>17</v>
       </c>
       <c r="C46" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.25">
@@ -1235,7 +1238,7 @@
         <v>19</v>
       </c>
       <c r="C47" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.25">
@@ -1246,10 +1249,10 @@
         <v>18</v>
       </c>
       <c r="C48" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="49" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A49" s="1">
         <v>48</v>
       </c>
@@ -1257,21 +1260,21 @@
         <v>4</v>
       </c>
       <c r="C49" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="50" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A50" s="1">
         <v>49</v>
       </c>
       <c r="B50" t="s">
-        <v>108</v>
+        <v>54</v>
       </c>
       <c r="C50" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="51" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A51" s="1">
         <v>50</v>
       </c>
@@ -1279,10 +1282,10 @@
         <v>1</v>
       </c>
       <c r="C51" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="52" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A52" s="1">
         <v>51</v>
       </c>
@@ -1290,10 +1293,10 @@
         <v>36</v>
       </c>
       <c r="C52" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.25">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="53" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A53" s="1">
         <v>52</v>
       </c>
@@ -1301,10 +1304,10 @@
         <v>37</v>
       </c>
       <c r="C53" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.25">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="54" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A54" s="1">
         <v>53</v>
       </c>
@@ -1312,20 +1315,20 @@
         <v>38</v>
       </c>
       <c r="C54" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="55" spans="1:3" x14ac:dyDescent="0.25">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="55" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A55" s="1">
         <v>54</v>
       </c>
     </row>
-    <row r="56" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A56" s="1">
         <v>55</v>
       </c>
     </row>
-    <row r="57" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A57" s="1">
         <v>56</v>
       </c>
@@ -1333,10 +1336,10 @@
         <v>20</v>
       </c>
       <c r="C57" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="58" spans="1:3" x14ac:dyDescent="0.25">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="58" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A58" s="1">
         <v>57</v>
       </c>
@@ -1344,7 +1347,10 @@
         <v>23</v>
       </c>
       <c r="C58" t="s">
-        <v>106</v>
+        <v>109</v>
+      </c>
+      <c r="H58" t="s">
+        <v>110</v>
       </c>
     </row>
   </sheetData>
